--- a/src/main/resources/data2.xlsx
+++ b/src/main/resources/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae_hu\Documents\GitHub\opt01\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1BC4A7-5F2A-43E9-AAAC-F5C035BC1E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5994880-901E-461E-A778-616D89AF5EF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15870" yWindow="220" windowWidth="8440" windowHeight="13480" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
+    <workbookView xWindow="7830" yWindow="40" windowWidth="25540" windowHeight="13480" activeTab="1" xr2:uid="{CBAB1C0D-D8C7-4D35-B05F-CB85A715296F}"/>
   </bookViews>
   <sheets>
     <sheet name="Needs" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19CBCD4-7DC9-4C99-A504-648E07404628}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,7 +603,7 @@
         <v>429</v>
       </c>
       <c r="C4">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F849BD-B211-486E-9F5C-9224B027940A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
